--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Kitl-Kit.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Kitl-Kit.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>137.7582515</v>
+        <v>269.2300645</v>
       </c>
       <c r="H2">
-        <v>275.516503</v>
+        <v>538.4601290000001</v>
       </c>
       <c r="I2">
-        <v>0.4516299624347574</v>
+        <v>0.7699556921486862</v>
       </c>
       <c r="J2">
-        <v>0.3666247651415019</v>
+        <v>0.7445198788571346</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27.3359195</v>
+        <v>34.1949995</v>
       </c>
       <c r="N2">
-        <v>54.671839</v>
+        <v>68.389999</v>
       </c>
       <c r="O2">
-        <v>0.5208854064261035</v>
+        <v>0.9277165210448179</v>
       </c>
       <c r="P2">
-        <v>0.4206000675568538</v>
+        <v>0.8989523754241795</v>
       </c>
       <c r="Q2">
-        <v>3765.748473464754</v>
+        <v>9206.321920962469</v>
       </c>
       <c r="R2">
-        <v>15062.99389385902</v>
+        <v>36825.28768384988</v>
       </c>
       <c r="S2">
-        <v>0.2352474565370344</v>
+        <v>0.714300616078834</v>
       </c>
       <c r="T2">
-        <v>0.1542024009865313</v>
+        <v>0.6692879136491434</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>137.7582515</v>
+        <v>269.2300645</v>
       </c>
       <c r="H3">
-        <v>275.516503</v>
+        <v>538.4601290000001</v>
       </c>
       <c r="I3">
-        <v>0.4516299624347574</v>
+        <v>0.7699556921486862</v>
       </c>
       <c r="J3">
-        <v>0.3666247651415019</v>
+        <v>0.7445198788571346</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>0.073406</v>
       </c>
       <c r="O3">
-        <v>0.0004662499602902151</v>
+        <v>0.0006638393521428564</v>
       </c>
       <c r="P3">
-        <v>0.0005647252611912032</v>
+        <v>0.0009648852030307431</v>
       </c>
       <c r="Q3">
-        <v>3.370760736536333</v>
+        <v>6.587700704895667</v>
       </c>
       <c r="R3">
-        <v>20.224564419218</v>
+        <v>39.526204229374</v>
       </c>
       <c r="S3">
-        <v>0.000210572452051077</v>
+        <v>0.0005111268878546884</v>
       </c>
       <c r="T3">
-        <v>0.0002070422662536982</v>
+        <v>0.0007183762144714905</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>137.7582515</v>
+        <v>269.2300645</v>
       </c>
       <c r="H4">
-        <v>275.516503</v>
+        <v>538.4601290000001</v>
       </c>
       <c r="I4">
-        <v>0.4516299624347574</v>
+        <v>0.7699556921486862</v>
       </c>
       <c r="J4">
-        <v>0.3666247651415019</v>
+        <v>0.7445198788571346</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.3667503333333333</v>
+        <v>0.2293823333333334</v>
       </c>
       <c r="N4">
-        <v>1.100251</v>
+        <v>0.6881470000000001</v>
       </c>
       <c r="O4">
-        <v>0.006988420361540876</v>
+        <v>0.006223184190107761</v>
       </c>
       <c r="P4">
-        <v>0.008464424343389948</v>
+        <v>0.009045348579271405</v>
       </c>
       <c r="Q4">
-        <v>50.52288465704217</v>
+        <v>61.75662039849384</v>
       </c>
       <c r="R4">
-        <v>303.137307942253</v>
+        <v>370.539722390963</v>
       </c>
       <c r="S4">
-        <v>0.003156180025361</v>
+        <v>0.004791576090463182</v>
       </c>
       <c r="T4">
-        <v>0.003103267586953352</v>
+        <v>0.006734441828459701</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>137.7582515</v>
+        <v>269.2300645</v>
       </c>
       <c r="H5">
-        <v>275.516503</v>
+        <v>538.4601290000001</v>
       </c>
       <c r="I5">
-        <v>0.4516299624347574</v>
+        <v>0.7699556921486862</v>
       </c>
       <c r="J5">
-        <v>0.3666247651415019</v>
+        <v>0.7445198788571346</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.117905</v>
+        <v>0.3055145</v>
       </c>
       <c r="N5">
-        <v>0.23581</v>
+        <v>0.611029</v>
       </c>
       <c r="O5">
-        <v>0.002246677447402848</v>
+        <v>0.008288663641265648</v>
       </c>
       <c r="P5">
-        <v>0.001814127780310841</v>
+        <v>0.008031670990418658</v>
       </c>
       <c r="Q5">
-        <v>16.2423866431075</v>
+        <v>82.25368854068526</v>
       </c>
       <c r="R5">
-        <v>64.96954657242999</v>
+        <v>329.014754162741</v>
       </c>
       <c r="S5">
-        <v>0.001014666851173565</v>
+        <v>0.006381903750898342</v>
       </c>
       <c r="T5">
-        <v>0.0006651041713931365</v>
+        <v>0.005979738712806861</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>137.7582515</v>
+        <v>269.2300645</v>
       </c>
       <c r="H6">
-        <v>275.516503</v>
+        <v>538.4601290000001</v>
       </c>
       <c r="I6">
-        <v>0.4516299624347574</v>
+        <v>0.7699556921486862</v>
       </c>
       <c r="J6">
-        <v>0.3666247651415019</v>
+        <v>0.7445198788571346</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.90359566666666</v>
+        <v>1.880841666666667</v>
       </c>
       <c r="N6">
-        <v>71.710787</v>
+        <v>5.642525000000001</v>
       </c>
       <c r="O6">
-        <v>0.4554825435404473</v>
+        <v>0.05102757459131231</v>
       </c>
       <c r="P6">
-        <v>0.5516836896003288</v>
+        <v>0.0741681726320879</v>
       </c>
       <c r="Q6">
-        <v>3292.917543602976</v>
+        <v>506.3791232309543</v>
       </c>
       <c r="R6">
-        <v>19757.50526161786</v>
+        <v>3038.274739385726</v>
       </c>
       <c r="S6">
-        <v>0.20570956402886</v>
+        <v>0.03928897151312259</v>
       </c>
       <c r="T6">
-        <v>0.2022609031321178</v>
+        <v>0.05521967890309713</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>137.7582515</v>
+        <v>269.2300645</v>
       </c>
       <c r="H7">
-        <v>275.516503</v>
+        <v>538.4601290000001</v>
       </c>
       <c r="I7">
-        <v>0.4516299624347574</v>
+        <v>0.7699556921486862</v>
       </c>
       <c r="J7">
-        <v>0.3666247651415019</v>
+        <v>0.7445198788571346</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.7310793333333333</v>
+        <v>0.2241126666666667</v>
       </c>
       <c r="N7">
-        <v>2.193238</v>
+        <v>0.6723380000000001</v>
       </c>
       <c r="O7">
-        <v>0.01393070226421533</v>
+        <v>0.00608021718035343</v>
       </c>
       <c r="P7">
-        <v>0.0168729654579254</v>
+        <v>0.008837547171011687</v>
       </c>
       <c r="Q7">
-        <v>100.7122106677857</v>
+        <v>60.33786770193368</v>
       </c>
       <c r="R7">
-        <v>604.273264006714</v>
+        <v>362.0272062116021</v>
       </c>
       <c r="S7">
-        <v>0.006291522540277361</v>
+        <v>0.004681497827513358</v>
       </c>
       <c r="T7">
-        <v>0.006186046998252576</v>
+        <v>0.006579729549155833</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>62.399556</v>
       </c>
       <c r="I8">
-        <v>0.0681907346755814</v>
+        <v>0.05948430935078661</v>
       </c>
       <c r="J8">
-        <v>0.08303394647628057</v>
+        <v>0.08627882989245242</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>27.3359195</v>
+        <v>34.1949995</v>
       </c>
       <c r="N8">
-        <v>54.671839</v>
+        <v>68.389999</v>
       </c>
       <c r="O8">
-        <v>0.5208854064261035</v>
+        <v>0.9277165210448179</v>
       </c>
       <c r="P8">
-        <v>0.4206000675568538</v>
+        <v>0.8989523754241795</v>
       </c>
       <c r="Q8">
-        <v>568.5830798839139</v>
+        <v>711.2509287400741</v>
       </c>
       <c r="R8">
-        <v>3411.498479303484</v>
+        <v>4267.505572440445</v>
       </c>
       <c r="S8">
-        <v>0.03551955854598481</v>
+        <v>0.05518457652766549</v>
       </c>
       <c r="T8">
-        <v>0.03492408349743579</v>
+        <v>0.0775605590806388</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>62.399556</v>
       </c>
       <c r="I9">
-        <v>0.0681907346755814</v>
+        <v>0.05948430935078661</v>
       </c>
       <c r="J9">
-        <v>0.08303394647628057</v>
+        <v>0.08627882989245242</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1001,22 +1001,22 @@
         <v>0.073406</v>
       </c>
       <c r="O9">
-        <v>0.0004662499602902151</v>
+        <v>0.0006638393521428564</v>
       </c>
       <c r="P9">
-        <v>0.0005647252611912032</v>
+        <v>0.0009648852030307431</v>
       </c>
       <c r="Q9">
-        <v>0.508944645304</v>
+        <v>0.5089446453040001</v>
       </c>
       <c r="R9">
         <v>4.580501807736</v>
       </c>
       <c r="S9">
-        <v>3.179392733465043E-05</v>
+        <v>3.948802538209144E-05</v>
       </c>
       <c r="T9">
-        <v>4.689136711155393E-05</v>
+        <v>8.32491662980339E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>62.399556</v>
       </c>
       <c r="I10">
-        <v>0.0681907346755814</v>
+        <v>0.05948430935078661</v>
       </c>
       <c r="J10">
-        <v>0.08303394647628057</v>
+        <v>0.08627882989245242</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.3667503333333333</v>
+        <v>0.2293823333333334</v>
       </c>
       <c r="N10">
-        <v>1.100251</v>
+        <v>0.6881470000000001</v>
       </c>
       <c r="O10">
-        <v>0.006988420361540876</v>
+        <v>0.006223184190107761</v>
       </c>
       <c r="P10">
-        <v>0.008464424343389948</v>
+        <v>0.009045348579271405</v>
       </c>
       <c r="Q10">
-        <v>7.628352654283999</v>
+        <v>4.771118584748001</v>
       </c>
       <c r="R10">
-        <v>68.65517388855601</v>
+        <v>42.94006726273201</v>
       </c>
       <c r="S10">
-        <v>0.0004765455186752645</v>
+        <v>0.0003701818135112945</v>
       </c>
       <c r="T10">
-        <v>0.0007028345578815673</v>
+        <v>0.0007804220913888938</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>62.399556</v>
       </c>
       <c r="I11">
-        <v>0.0681907346755814</v>
+        <v>0.05948430935078661</v>
       </c>
       <c r="J11">
-        <v>0.08303394647628057</v>
+        <v>0.08627882989245242</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.117905</v>
+        <v>0.3055145</v>
       </c>
       <c r="N11">
-        <v>0.23581</v>
+        <v>0.611029</v>
       </c>
       <c r="O11">
-        <v>0.002246677447402848</v>
+        <v>0.008288663641265648</v>
       </c>
       <c r="P11">
-        <v>0.001814127780310841</v>
+        <v>0.008031670990418658</v>
       </c>
       <c r="Q11">
-        <v>2.45240655006</v>
+        <v>6.354656383854</v>
       </c>
       <c r="R11">
-        <v>14.71443930036</v>
+        <v>38.127938303124</v>
       </c>
       <c r="S11">
-        <v>0.0001532025857174601</v>
+        <v>0.0004930454321416632</v>
       </c>
       <c r="T11">
-        <v>0.0001506341890114641</v>
+        <v>0.0006929631751344763</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>62.399556</v>
       </c>
       <c r="I12">
-        <v>0.0681907346755814</v>
+        <v>0.05948430935078661</v>
       </c>
       <c r="J12">
-        <v>0.08303394647628057</v>
+        <v>0.08627882989245242</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>23.90359566666666</v>
+        <v>1.880841666666667</v>
       </c>
       <c r="N12">
-        <v>71.710787</v>
+        <v>5.642525000000001</v>
       </c>
       <c r="O12">
-        <v>0.4554825435404473</v>
+        <v>0.05102757459131231</v>
       </c>
       <c r="P12">
-        <v>0.5516836896003288</v>
+        <v>0.0741681726320879</v>
       </c>
       <c r="Q12">
-        <v>497.1912521345079</v>
+        <v>39.12122830210001</v>
       </c>
       <c r="R12">
-        <v>4474.721269210571</v>
+        <v>352.0910547189001</v>
       </c>
       <c r="S12">
-        <v>0.03105968927592559</v>
+        <v>0.00303534003240996</v>
       </c>
       <c r="T12">
-        <v>0.04580847395411068</v>
+        <v>0.006399143149957957</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>62.399556</v>
       </c>
       <c r="I13">
-        <v>0.0681907346755814</v>
+        <v>0.05948430935078661</v>
       </c>
       <c r="J13">
-        <v>0.08303394647628057</v>
+        <v>0.08627882989245242</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.7310793333333333</v>
+        <v>0.2241126666666667</v>
       </c>
       <c r="N13">
-        <v>2.193238</v>
+        <v>0.6723380000000001</v>
       </c>
       <c r="O13">
-        <v>0.01393070226421533</v>
+        <v>0.00608021718035343</v>
       </c>
       <c r="P13">
-        <v>0.0168729654579254</v>
+        <v>0.008837547171011687</v>
       </c>
       <c r="Q13">
-        <v>15.206341933592</v>
+        <v>4.661510297992002</v>
       </c>
       <c r="R13">
-        <v>136.857077402328</v>
+        <v>41.95359268192801</v>
       </c>
       <c r="S13">
-        <v>0.0009499448219436288</v>
+        <v>0.0003616775196761109</v>
       </c>
       <c r="T13">
-        <v>0.001401028910729509</v>
+        <v>0.0007624932290342415</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>1.083748333333333</v>
+        <v>0.3785706666666667</v>
       </c>
       <c r="H14">
-        <v>3.251245</v>
+        <v>1.135712</v>
       </c>
       <c r="I14">
-        <v>0.003552986581512065</v>
+        <v>0.00108265263844827</v>
       </c>
       <c r="J14">
-        <v>0.00432637218302122</v>
+        <v>0.001570330123099224</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>27.3359195</v>
+        <v>34.1949995</v>
       </c>
       <c r="N14">
-        <v>54.671839</v>
+        <v>68.389999</v>
       </c>
       <c r="O14">
-        <v>0.5208854064261035</v>
+        <v>0.9277165210448179</v>
       </c>
       <c r="P14">
-        <v>0.4206000675568538</v>
+        <v>0.8989523754241795</v>
       </c>
       <c r="Q14">
-        <v>29.62525719825917</v>
+        <v>12.94522375738133</v>
       </c>
       <c r="R14">
-        <v>177.751543189555</v>
+        <v>77.67134254428801</v>
       </c>
       <c r="S14">
-        <v>0.001850698859537404</v>
+        <v>0.001004394739241222</v>
       </c>
       <c r="T14">
-        <v>0.001819672432454818</v>
+        <v>0.001411651994360192</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>1.083748333333333</v>
+        <v>0.3785706666666667</v>
       </c>
       <c r="H15">
-        <v>3.251245</v>
+        <v>1.135712</v>
       </c>
       <c r="I15">
-        <v>0.003552986581512065</v>
+        <v>0.00108265263844827</v>
       </c>
       <c r="J15">
-        <v>0.00432637218302122</v>
+        <v>0.001570330123099224</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1373,22 +1373,22 @@
         <v>0.073406</v>
       </c>
       <c r="O15">
-        <v>0.0004662499602902151</v>
+        <v>0.0006638393521428564</v>
       </c>
       <c r="P15">
-        <v>0.0005647252611912032</v>
+        <v>0.0009648852030307431</v>
       </c>
       <c r="Q15">
-        <v>0.02651787671888889</v>
+        <v>0.009263119452444445</v>
       </c>
       <c r="R15">
-        <v>0.23866089047</v>
+        <v>0.083368075072</v>
       </c>
       <c r="S15">
-        <v>1.656579852541668E-06</v>
+        <v>7.187074261032536E-07</v>
       </c>
       <c r="T15">
-        <v>2.443211661067014E-06</v>
+        <v>1.515188299651886E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>1.083748333333333</v>
+        <v>0.3785706666666667</v>
       </c>
       <c r="H16">
-        <v>3.251245</v>
+        <v>1.135712</v>
       </c>
       <c r="I16">
-        <v>0.003552986581512065</v>
+        <v>0.00108265263844827</v>
       </c>
       <c r="J16">
-        <v>0.00432637218302122</v>
+        <v>0.001570330123099224</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.3667503333333333</v>
+        <v>0.2293823333333334</v>
       </c>
       <c r="N16">
-        <v>1.100251</v>
+        <v>0.6881470000000001</v>
       </c>
       <c r="O16">
-        <v>0.006988420361540876</v>
+        <v>0.006223184190107761</v>
       </c>
       <c r="P16">
-        <v>0.008464424343389948</v>
+        <v>0.009045348579271405</v>
       </c>
       <c r="Q16">
-        <v>0.3974650624994445</v>
+        <v>0.08683742285155556</v>
       </c>
       <c r="R16">
-        <v>3.577185562495</v>
+        <v>0.7815368056640001</v>
       </c>
       <c r="S16">
-        <v>2.482976377052042E-05</v>
+        <v>6.737546782969726E-06</v>
       </c>
       <c r="T16">
-        <v>3.662025002452993E-05</v>
+        <v>1.420418334796266E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>1.083748333333333</v>
+        <v>0.3785706666666667</v>
       </c>
       <c r="H17">
-        <v>3.251245</v>
+        <v>1.135712</v>
       </c>
       <c r="I17">
-        <v>0.003552986581512065</v>
+        <v>0.00108265263844827</v>
       </c>
       <c r="J17">
-        <v>0.00432637218302122</v>
+        <v>0.001570330123099224</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.117905</v>
+        <v>0.3055145</v>
       </c>
       <c r="N17">
-        <v>0.23581</v>
+        <v>0.611029</v>
       </c>
       <c r="O17">
-        <v>0.002246677447402848</v>
+        <v>0.008288663641265648</v>
       </c>
       <c r="P17">
-        <v>0.001814127780310841</v>
+        <v>0.008031670990418658</v>
       </c>
       <c r="Q17">
-        <v>0.1277793472416666</v>
+        <v>0.1156588279413333</v>
       </c>
       <c r="R17">
-        <v>0.7666760834499999</v>
+        <v>0.6939529676480001</v>
       </c>
       <c r="S17">
-        <v>7.982414823608095E-06</v>
+        <v>8.973743560426498E-06</v>
       </c>
       <c r="T17">
-        <v>7.848591965182854E-06</v>
+        <v>1.26123748950766E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>1.083748333333333</v>
+        <v>0.3785706666666667</v>
       </c>
       <c r="H18">
-        <v>3.251245</v>
+        <v>1.135712</v>
       </c>
       <c r="I18">
-        <v>0.003552986581512065</v>
+        <v>0.00108265263844827</v>
       </c>
       <c r="J18">
-        <v>0.00432637218302122</v>
+        <v>0.001570330123099224</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>23.90359566666666</v>
+        <v>1.880841666666667</v>
       </c>
       <c r="N18">
-        <v>71.710787</v>
+        <v>5.642525000000001</v>
       </c>
       <c r="O18">
-        <v>0.4554825435404473</v>
+        <v>0.05102757459131231</v>
       </c>
       <c r="P18">
-        <v>0.5516836896003288</v>
+        <v>0.0741681726320879</v>
       </c>
       <c r="Q18">
-        <v>25.90548196442388</v>
+        <v>0.7120314836444446</v>
       </c>
       <c r="R18">
-        <v>233.149337679815</v>
+        <v>6.408283352800002</v>
       </c>
       <c r="S18">
-        <v>0.001618323365312194</v>
+        <v>5.524513826490017E-05</v>
       </c>
       <c r="T18">
-        <v>0.002386788968513375</v>
+        <v>0.0001164685156593911</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>1.083748333333333</v>
+        <v>0.3785706666666667</v>
       </c>
       <c r="H19">
-        <v>3.251245</v>
+        <v>1.135712</v>
       </c>
       <c r="I19">
-        <v>0.003552986581512065</v>
+        <v>0.00108265263844827</v>
       </c>
       <c r="J19">
-        <v>0.00432637218302122</v>
+        <v>0.001570330123099224</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.7310793333333333</v>
+        <v>0.2241126666666667</v>
       </c>
       <c r="N19">
-        <v>2.193238</v>
+        <v>0.6723380000000001</v>
       </c>
       <c r="O19">
-        <v>0.01393070226421533</v>
+        <v>0.00608021718035343</v>
       </c>
       <c r="P19">
-        <v>0.0168729654579254</v>
+        <v>0.008837547171011687</v>
       </c>
       <c r="Q19">
-        <v>0.7923060090344444</v>
+        <v>0.08484248162844446</v>
       </c>
       <c r="R19">
-        <v>7.13075408131</v>
+        <v>0.7635823346560001</v>
       </c>
       <c r="S19">
-        <v>4.949559821579682E-05</v>
+        <v>6.582763172648141E-06</v>
       </c>
       <c r="T19">
-        <v>7.299872840224636E-05</v>
+        <v>1.387786653694998E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>25.8210445</v>
+        <v>56.5472355</v>
       </c>
       <c r="H20">
-        <v>51.642089</v>
+        <v>113.094471</v>
       </c>
       <c r="I20">
-        <v>0.08465233284092023</v>
+        <v>0.1617162107410083</v>
       </c>
       <c r="J20">
-        <v>0.06871918213567606</v>
+        <v>0.1563738470380445</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>27.3359195</v>
+        <v>34.1949995</v>
       </c>
       <c r="N20">
-        <v>54.671839</v>
+        <v>68.389999</v>
       </c>
       <c r="O20">
-        <v>0.5208854064261035</v>
+        <v>0.9277165210448179</v>
       </c>
       <c r="P20">
-        <v>0.4206000675568538</v>
+        <v>0.8989523754241795</v>
       </c>
       <c r="Q20">
-        <v>705.8419938579177</v>
+        <v>1933.632689648882</v>
       </c>
       <c r="R20">
-        <v>2823.367975431671</v>
+        <v>7734.530758595529</v>
       </c>
       <c r="S20">
-        <v>0.04409416479676052</v>
+        <v>0.1500268004251988</v>
       </c>
       <c r="T20">
-        <v>0.02890329264871709</v>
+        <v>0.1405726412490674</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>25.8210445</v>
+        <v>56.5472355</v>
       </c>
       <c r="H21">
-        <v>51.642089</v>
+        <v>113.094471</v>
       </c>
       <c r="I21">
-        <v>0.08465233284092023</v>
+        <v>0.1617162107410083</v>
       </c>
       <c r="J21">
-        <v>0.06871918213567606</v>
+        <v>0.1563738470380445</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1745,22 +1745,22 @@
         <v>0.073406</v>
       </c>
       <c r="O21">
-        <v>0.0004662499602902151</v>
+        <v>0.0006638393521428564</v>
       </c>
       <c r="P21">
-        <v>0.0005647252611912032</v>
+        <v>0.0009648852030307431</v>
       </c>
       <c r="Q21">
-        <v>0.6318065308556666</v>
+        <v>1.383635456371</v>
       </c>
       <c r="R21">
-        <v>3.790839185134</v>
+        <v>8.301812738225999</v>
       </c>
       <c r="S21">
-        <v>3.946914682555314E-05</v>
+        <v>0.0001073535845693086</v>
       </c>
       <c r="T21">
-        <v>3.880745808041553E-05</v>
+        <v>0.000150882811148002</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>25.8210445</v>
+        <v>56.5472355</v>
       </c>
       <c r="H22">
-        <v>51.642089</v>
+        <v>113.094471</v>
       </c>
       <c r="I22">
-        <v>0.08465233284092023</v>
+        <v>0.1617162107410083</v>
       </c>
       <c r="J22">
-        <v>0.06871918213567606</v>
+        <v>0.1563738470380445</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.3667503333333333</v>
+        <v>0.2293823333333334</v>
       </c>
       <c r="N22">
-        <v>1.100251</v>
+        <v>0.6881470000000001</v>
       </c>
       <c r="O22">
-        <v>0.006988420361540876</v>
+        <v>0.006223184190107761</v>
       </c>
       <c r="P22">
-        <v>0.008464424343389948</v>
+        <v>0.009045348579271405</v>
       </c>
       <c r="Q22">
-        <v>9.469876677389834</v>
+        <v>12.9709368225395</v>
       </c>
       <c r="R22">
-        <v>56.81926006433901</v>
+        <v>77.82562093523701</v>
       </c>
       <c r="S22">
-        <v>0.0005915860864774223</v>
+        <v>0.001006389765967578</v>
       </c>
       <c r="T22">
-        <v>0.0005816683181270641</v>
+        <v>0.00141445595514078</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>25.8210445</v>
+        <v>56.5472355</v>
       </c>
       <c r="H23">
-        <v>51.642089</v>
+        <v>113.094471</v>
       </c>
       <c r="I23">
-        <v>0.08465233284092023</v>
+        <v>0.1617162107410083</v>
       </c>
       <c r="J23">
-        <v>0.06871918213567606</v>
+        <v>0.1563738470380445</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.117905</v>
+        <v>0.3055145</v>
       </c>
       <c r="N23">
-        <v>0.23581</v>
+        <v>0.611029</v>
       </c>
       <c r="O23">
-        <v>0.002246677447402848</v>
+        <v>0.008288663641265648</v>
       </c>
       <c r="P23">
-        <v>0.001814127780310841</v>
+        <v>0.008031670990418658</v>
       </c>
       <c r="Q23">
-        <v>3.0444302517725</v>
+        <v>17.27600038016475</v>
       </c>
       <c r="R23">
-        <v>12.17772100709</v>
+        <v>69.10400152065901</v>
       </c>
       <c r="S23">
-        <v>0.0001901864870637349</v>
+        <v>0.001340411276172249</v>
       </c>
       <c r="T23">
-        <v>0.0001246653773525704</v>
+        <v>0.001255943290915627</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>25.8210445</v>
+        <v>56.5472355</v>
       </c>
       <c r="H24">
-        <v>51.642089</v>
+        <v>113.094471</v>
       </c>
       <c r="I24">
-        <v>0.08465233284092023</v>
+        <v>0.1617162107410083</v>
       </c>
       <c r="J24">
-        <v>0.06871918213567606</v>
+        <v>0.1563738470380445</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>23.90359566666666</v>
+        <v>1.880841666666667</v>
       </c>
       <c r="N24">
-        <v>71.710787</v>
+        <v>5.642525000000001</v>
       </c>
       <c r="O24">
-        <v>0.4554825435404473</v>
+        <v>0.05102757459131231</v>
       </c>
       <c r="P24">
-        <v>0.5516836896003288</v>
+        <v>0.0741681726320879</v>
       </c>
       <c r="Q24">
-        <v>617.2158074190071</v>
+        <v>106.3563966632125</v>
       </c>
       <c r="R24">
-        <v>3703.294844514043</v>
+        <v>638.1383799792751</v>
       </c>
       <c r="S24">
-        <v>0.03855765987901488</v>
+        <v>0.008251986006211182</v>
       </c>
       <c r="T24">
-        <v>0.03791125194692677</v>
+        <v>0.01159796248226139</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>25.8210445</v>
+        <v>56.5472355</v>
       </c>
       <c r="H25">
-        <v>51.642089</v>
+        <v>113.094471</v>
       </c>
       <c r="I25">
-        <v>0.08465233284092023</v>
+        <v>0.1617162107410083</v>
       </c>
       <c r="J25">
-        <v>0.06871918213567606</v>
+        <v>0.1563738470380445</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.7310793333333333</v>
+        <v>0.2241126666666667</v>
       </c>
       <c r="N25">
-        <v>2.193238</v>
+        <v>0.6723380000000001</v>
       </c>
       <c r="O25">
-        <v>0.01393070226421533</v>
+        <v>0.00608021718035343</v>
       </c>
       <c r="P25">
-        <v>0.0168729654579254</v>
+        <v>0.008837547171011687</v>
       </c>
       <c r="Q25">
-        <v>18.87723199903033</v>
+        <v>12.672951740533</v>
       </c>
       <c r="R25">
-        <v>113.263391994182</v>
+        <v>76.03771044319801</v>
       </c>
       <c r="S25">
-        <v>0.001179266444778118</v>
+        <v>0.0009832696828891345</v>
       </c>
       <c r="T25">
-        <v>0.001159496386472146</v>
+        <v>0.001381961249511285</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>117.707601</v>
+        <v>0.8363143333333333</v>
       </c>
       <c r="H26">
-        <v>353.122803</v>
+        <v>2.508943</v>
       </c>
       <c r="I26">
-        <v>0.3858954279621893</v>
+        <v>0.002391727619912722</v>
       </c>
       <c r="J26">
-        <v>0.469894047384827</v>
+        <v>0.003469073823327513</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>27.3359195</v>
+        <v>34.1949995</v>
       </c>
       <c r="N26">
-        <v>54.671839</v>
+        <v>68.389999</v>
       </c>
       <c r="O26">
-        <v>0.5208854064261035</v>
+        <v>0.9277165210448179</v>
       </c>
       <c r="P26">
-        <v>0.4206000675568538</v>
+        <v>0.8989523754241795</v>
       </c>
       <c r="Q26">
-        <v>3217.64550547412</v>
+        <v>28.59776821017617</v>
       </c>
       <c r="R26">
-        <v>19305.87303284472</v>
+        <v>171.586609261057</v>
       </c>
       <c r="S26">
-        <v>0.2010072968320601</v>
+        <v>0.002218845226832233</v>
       </c>
       <c r="T26">
-        <v>0.1976374680746217</v>
+        <v>0.003118532154002108</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>117.707601</v>
+        <v>0.8363143333333333</v>
       </c>
       <c r="H27">
-        <v>353.122803</v>
+        <v>2.508943</v>
       </c>
       <c r="I27">
-        <v>0.3858954279621893</v>
+        <v>0.002391727619912722</v>
       </c>
       <c r="J27">
-        <v>0.469894047384827</v>
+        <v>0.003469073823327513</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2117,22 +2117,22 @@
         <v>0.073406</v>
       </c>
       <c r="O27">
-        <v>0.0004662499602902151</v>
+        <v>0.0006638393521428564</v>
       </c>
       <c r="P27">
-        <v>0.0005647252611912032</v>
+        <v>0.0009648852030307431</v>
       </c>
       <c r="Q27">
-        <v>2.880148053002</v>
+        <v>0.02046349665088889</v>
       </c>
       <c r="R27">
-        <v>25.921332477018</v>
+        <v>0.184171469858</v>
       </c>
       <c r="S27">
-        <v>0.0001799237279635464</v>
+        <v>1.587722913705037E-06</v>
       </c>
       <c r="T27">
-        <v>0.0002653610386415881</v>
+        <v>3.347258000350003E-06</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>117.707601</v>
+        <v>0.8363143333333333</v>
       </c>
       <c r="H28">
-        <v>353.122803</v>
+        <v>2.508943</v>
       </c>
       <c r="I28">
-        <v>0.3858954279621893</v>
+        <v>0.002391727619912722</v>
       </c>
       <c r="J28">
-        <v>0.469894047384827</v>
+        <v>0.003469073823327513</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.3667503333333333</v>
+        <v>0.2293823333333334</v>
       </c>
       <c r="N28">
-        <v>1.100251</v>
+        <v>0.6881470000000001</v>
       </c>
       <c r="O28">
-        <v>0.006988420361540876</v>
+        <v>0.006223184190107761</v>
       </c>
       <c r="P28">
-        <v>0.008464424343389948</v>
+        <v>0.009045348579271405</v>
       </c>
       <c r="Q28">
-        <v>43.169301902617</v>
+        <v>0.1918357331801111</v>
       </c>
       <c r="R28">
-        <v>388.523717123553</v>
+        <v>1.726521598621</v>
       </c>
       <c r="S28">
-        <v>0.002696799466196494</v>
+        <v>1.488416151128492E-05</v>
       </c>
       <c r="T28">
-        <v>0.00397738261349816</v>
+        <v>3.137898197922314E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>117.707601</v>
+        <v>0.8363143333333333</v>
       </c>
       <c r="H29">
-        <v>353.122803</v>
+        <v>2.508943</v>
       </c>
       <c r="I29">
-        <v>0.3858954279621893</v>
+        <v>0.002391727619912722</v>
       </c>
       <c r="J29">
-        <v>0.469894047384827</v>
+        <v>0.003469073823327513</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.117905</v>
+        <v>0.3055145</v>
       </c>
       <c r="N29">
-        <v>0.23581</v>
+        <v>0.611029</v>
       </c>
       <c r="O29">
-        <v>0.002246677447402848</v>
+        <v>0.008288663641265648</v>
       </c>
       <c r="P29">
-        <v>0.001814127780310841</v>
+        <v>0.008031670990418658</v>
       </c>
       <c r="Q29">
-        <v>13.878314695905</v>
+        <v>0.2555061553911667</v>
       </c>
       <c r="R29">
-        <v>83.26988817543</v>
+        <v>1.533036932347</v>
       </c>
       <c r="S29">
-        <v>0.000866982555058521</v>
+        <v>1.98242257629814E-05</v>
       </c>
       <c r="T29">
-        <v>0.0008524478451635136</v>
+        <v>2.786245959044032E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>117.707601</v>
+        <v>0.8363143333333333</v>
       </c>
       <c r="H30">
-        <v>353.122803</v>
+        <v>2.508943</v>
       </c>
       <c r="I30">
-        <v>0.3858954279621893</v>
+        <v>0.002391727619912722</v>
       </c>
       <c r="J30">
-        <v>0.469894047384827</v>
+        <v>0.003469073823327513</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>23.90359566666666</v>
+        <v>1.880841666666667</v>
       </c>
       <c r="N30">
-        <v>71.710787</v>
+        <v>5.642525000000001</v>
       </c>
       <c r="O30">
-        <v>0.4554825435404473</v>
+        <v>0.05102757459131231</v>
       </c>
       <c r="P30">
-        <v>0.5516836896003288</v>
+        <v>0.0741681726320879</v>
       </c>
       <c r="Q30">
-        <v>2813.634901197328</v>
+        <v>1.572974844563889</v>
       </c>
       <c r="R30">
-        <v>25322.71411077596</v>
+        <v>14.156773601075</v>
       </c>
       <c r="S30">
-        <v>0.1757686310688474</v>
+        <v>0.0001220440595271983</v>
       </c>
       <c r="T30">
-        <v>0.2592328817824931</v>
+        <v>0.0002572948662020122</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>117.707601</v>
+        <v>0.8363143333333333</v>
       </c>
       <c r="H31">
-        <v>353.122803</v>
+        <v>2.508943</v>
       </c>
       <c r="I31">
-        <v>0.3858954279621893</v>
+        <v>0.002391727619912722</v>
       </c>
       <c r="J31">
-        <v>0.469894047384827</v>
+        <v>0.003469073823327513</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.7310793333333333</v>
+        <v>0.2241126666666667</v>
       </c>
       <c r="N31">
-        <v>2.193238</v>
+        <v>0.6723380000000001</v>
       </c>
       <c r="O31">
-        <v>0.01393070226421533</v>
+        <v>0.00608021718035343</v>
       </c>
       <c r="P31">
-        <v>0.0168729654579254</v>
+        <v>0.008837547171011687</v>
       </c>
       <c r="Q31">
-        <v>86.05359446734599</v>
+        <v>0.1874286354148889</v>
       </c>
       <c r="R31">
-        <v>774.482350206114</v>
+        <v>1.686857718734</v>
       </c>
       <c r="S31">
-        <v>0.005375794312063216</v>
+        <v>1.454222336531915E-05</v>
       </c>
       <c r="T31">
-        <v>0.00792850603040895</v>
+        <v>3.065810355337875E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1.854109</v>
+        <v>1.877518333333333</v>
       </c>
       <c r="H32">
-        <v>5.562327</v>
+        <v>5.632555</v>
       </c>
       <c r="I32">
-        <v>0.006078555505039534</v>
+        <v>0.005369407501157859</v>
       </c>
       <c r="J32">
-        <v>0.007401686678693199</v>
+        <v>0.007788040265941673</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>27.3359195</v>
+        <v>34.1949995</v>
       </c>
       <c r="N32">
-        <v>54.671839</v>
+        <v>68.389999</v>
       </c>
       <c r="O32">
-        <v>0.5208854064261035</v>
+        <v>0.9277165210448179</v>
       </c>
       <c r="P32">
-        <v>0.4206000675568538</v>
+        <v>0.8989523754241795</v>
       </c>
       <c r="Q32">
-        <v>50.6837743682255</v>
+        <v>64.20173846957417</v>
       </c>
       <c r="R32">
-        <v>304.102646209353</v>
+        <v>385.210430817445</v>
       </c>
       <c r="S32">
-        <v>0.003166230854726146</v>
+        <v>0.004981288047046118</v>
       </c>
       <c r="T32">
-        <v>0.003113149917093024</v>
+        <v>0.007001077296967425</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1.854109</v>
+        <v>1.877518333333333</v>
       </c>
       <c r="H33">
-        <v>5.562327</v>
+        <v>5.632555</v>
       </c>
       <c r="I33">
-        <v>0.006078555505039534</v>
+        <v>0.005369407501157859</v>
       </c>
       <c r="J33">
-        <v>0.007401686678693199</v>
+        <v>0.007788040265941673</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -2489,22 +2489,22 @@
         <v>0.073406</v>
       </c>
       <c r="O33">
-        <v>0.0004662499602902151</v>
+        <v>0.0006638393521428564</v>
       </c>
       <c r="P33">
-        <v>0.0005647252611912032</v>
+        <v>0.0009648852030307431</v>
       </c>
       <c r="Q33">
-        <v>0.04536757508466666</v>
+        <v>0.04594037025888889</v>
       </c>
       <c r="R33">
-        <v>0.408308175762</v>
+        <v>0.41346333233</v>
       </c>
       <c r="S33">
-        <v>2.834126262846551E-06</v>
+        <v>3.564423996959626E-06</v>
       </c>
       <c r="T33">
-        <v>4.179919442880466E-06</v>
+        <v>7.514564813214733E-06</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,46 +2527,46 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1.854109</v>
+        <v>1.877518333333333</v>
       </c>
       <c r="H34">
-        <v>5.562327</v>
+        <v>5.632555</v>
       </c>
       <c r="I34">
-        <v>0.006078555505039534</v>
+        <v>0.005369407501157859</v>
       </c>
       <c r="J34">
-        <v>0.007401686678693199</v>
+        <v>0.007788040265941673</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>0.3667503333333333</v>
+        <v>0.2293823333333334</v>
       </c>
       <c r="N34">
-        <v>1.100251</v>
+        <v>0.6881470000000001</v>
       </c>
       <c r="O34">
-        <v>0.006988420361540876</v>
+        <v>0.006223184190107761</v>
       </c>
       <c r="P34">
-        <v>0.008464424343389948</v>
+        <v>0.009045348579271405</v>
       </c>
       <c r="Q34">
-        <v>0.6799950937863334</v>
+        <v>0.4306695361761111</v>
       </c>
       <c r="R34">
-        <v>6.119955844077</v>
+        <v>3.876025825585</v>
       </c>
       <c r="S34">
-        <v>4.247950106017466E-05</v>
+        <v>3.341481187145161E-05</v>
       </c>
       <c r="T34">
-        <v>6.265101690527581E-05</v>
+        <v>7.0445538954844E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1.854109</v>
+        <v>1.877518333333333</v>
       </c>
       <c r="H35">
-        <v>5.562327</v>
+        <v>5.632555</v>
       </c>
       <c r="I35">
-        <v>0.006078555505039534</v>
+        <v>0.005369407501157859</v>
       </c>
       <c r="J35">
-        <v>0.007401686678693199</v>
+        <v>0.007788040265941673</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.117905</v>
+        <v>0.3055145</v>
       </c>
       <c r="N35">
-        <v>0.23581</v>
+        <v>0.611029</v>
       </c>
       <c r="O35">
-        <v>0.002246677447402848</v>
+        <v>0.008288663641265648</v>
       </c>
       <c r="P35">
-        <v>0.001814127780310841</v>
+        <v>0.008031670990418658</v>
       </c>
       <c r="Q35">
-        <v>0.218608721645</v>
+        <v>0.5736090748491667</v>
       </c>
       <c r="R35">
-        <v>1.31165232987</v>
+        <v>3.441654449095</v>
       </c>
       <c r="S35">
-        <v>1.365655356595875E-05</v>
+        <v>4.450521272998618E-05</v>
       </c>
       <c r="T35">
-        <v>1.342760542497402E-05</v>
+        <v>6.255097707617614E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1.854109</v>
+        <v>1.877518333333333</v>
       </c>
       <c r="H36">
-        <v>5.562327</v>
+        <v>5.632555</v>
       </c>
       <c r="I36">
-        <v>0.006078555505039534</v>
+        <v>0.005369407501157859</v>
       </c>
       <c r="J36">
-        <v>0.007401686678693199</v>
+        <v>0.007788040265941673</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>23.90359566666666</v>
+        <v>1.880841666666667</v>
       </c>
       <c r="N36">
-        <v>71.710787</v>
+        <v>5.642525000000001</v>
       </c>
       <c r="O36">
-        <v>0.4554825435404473</v>
+        <v>0.05102757459131231</v>
       </c>
       <c r="P36">
-        <v>0.5516836896003288</v>
+        <v>0.0741681726320879</v>
       </c>
       <c r="Q36">
-        <v>44.31987185792767</v>
+        <v>3.53131471126389</v>
       </c>
       <c r="R36">
-        <v>398.878846721349</v>
+        <v>31.78183240137501</v>
       </c>
       <c r="S36">
-        <v>0.002768675922487195</v>
+        <v>0.0002739878417764845</v>
       </c>
       <c r="T36">
-        <v>0.004083389816167067</v>
+        <v>0.0005776247149100138</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1.854109</v>
+        <v>1.877518333333333</v>
       </c>
       <c r="H37">
-        <v>5.562327</v>
+        <v>5.632555</v>
       </c>
       <c r="I37">
-        <v>0.006078555505039534</v>
+        <v>0.005369407501157859</v>
       </c>
       <c r="J37">
-        <v>0.007401686678693199</v>
+        <v>0.007788040265941673</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.7310793333333333</v>
+        <v>0.2241126666666667</v>
       </c>
       <c r="N37">
-        <v>2.193238</v>
+        <v>0.6723380000000001</v>
       </c>
       <c r="O37">
-        <v>0.01393070226421533</v>
+        <v>0.00608021718035343</v>
       </c>
       <c r="P37">
-        <v>0.0168729654579254</v>
+        <v>0.008837547171011687</v>
       </c>
       <c r="Q37">
-        <v>1.355500771647333</v>
+        <v>0.420775640398889</v>
       </c>
       <c r="R37">
-        <v>12.199506944826</v>
+        <v>3.78698076359</v>
       </c>
       <c r="S37">
-        <v>8.467854693721281E-05</v>
+        <v>3.264716373685859E-05</v>
       </c>
       <c r="T37">
-        <v>0.0001248884036599769</v>
+        <v>6.882717321999794E-05</v>
       </c>
     </row>
   </sheetData>
